--- a/va_facility_data_2025-02-20/Brownwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brownwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brownwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brownwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R85d5bbd0a9be4f07b6989f7d4d2e2f11"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R43b54e1ff6d244df8eed2beeaad4d1e7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra8ff34818728493ea4fb6f129fba901d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb7f4d6dcf2ca4a8ea46fd5cb033d49c9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbb123d8605e4423982e7a12db4fb9526"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4abb492f9caf4b78ad4066a424033d92"/>
   </x:sheets>
 </x:workbook>
 </file>
